--- a/scoring/forms/JRAQ/JRAQ93_test_2.xlsx
+++ b/scoring/forms/JRAQ/JRAQ93_test_2.xlsx
@@ -12,6 +12,8 @@
     <sheet name="outputs1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="outputs2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="outputs3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="outputs4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="outputs5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1225,4 +1227,40 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/scoring/forms/JRAQ/JRAQ93_test_2.xlsx
+++ b/scoring/forms/JRAQ/JRAQ93_test_2.xlsx
@@ -14,6 +14,7 @@
     <sheet name="outputs3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="outputs4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="outputs5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="outputs6" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1263,4 +1264,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/scoring/forms/JRAQ/JRAQ93_test_2.xlsx
+++ b/scoring/forms/JRAQ/JRAQ93_test_2.xlsx
@@ -4,33 +4,44 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="question_answers" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="outputs" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="outputs1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="outputs2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="outputs3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="outputs4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="outputs5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="outputs6" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,16 +61,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -416,632 +444,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>شماره سوالات</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>پاسخ  گزینه فرد</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="15" customHeight="1" s="1">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="1">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="1">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="1">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="1">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="1">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" ht="15" customHeight="1" s="1">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="1">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" ht="15" customHeight="1" s="1">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="1">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="1">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="1">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" ht="15" customHeight="1" s="1">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="1">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="1">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" ht="15" customHeight="1" s="1">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="1">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="1">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="1">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="1">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="1">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="1">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="1">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="1">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="1">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="1">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="1">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="1">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="1">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="1">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="1">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="1">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="1">
+      <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="1">
+      <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="1">
+      <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" s="1">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="1">
+      <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" ht="15" customHeight="1" s="1">
+      <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="1">
+      <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" ht="15" customHeight="1" s="1">
+      <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="1">
+      <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="1">
+      <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="1">
+      <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="1">
+      <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" s="1">
+      <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="1">
+      <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" s="1">
+      <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" s="1">
+      <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" s="1">
+      <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" s="1">
+      <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" s="1">
+      <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" s="1">
+      <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1" s="1">
+      <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1" s="1">
+      <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1" s="1">
+      <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1" s="1">
+      <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" s="1">
+      <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" s="1">
+      <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1" s="1">
+      <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1" s="1">
+      <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -1060,115 +1090,109 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>پاسخ سیستم</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>پاسخ دستی کارشناس</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>clinical</t>
         </is>
       </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>religious_ambivalence</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>religious_adherence</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>religious_disobedience</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>researchical</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>religious_ambivalence</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B7" s="2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>religious_adherence</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B8" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>religious_disobedience</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>researchical</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>religious_ambivalence</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>religious_adherence</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>religious_disobedience</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>clinical_raw</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>29</v>
+      <c r="B10" s="2" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>researchical_raw</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>97</v>
+      <c r="B11" s="2" t="n">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1210,76 +1234,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>